--- a/experiment_results/SBFL_ONLY/Summary/BankAccountTP/multiple_bugs.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/BankAccountTP/multiple_bugs.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01294498381877023</v>
+        <v>0.01290322580645161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1278317152103562</v>
+        <v>0.1284946236559142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2189859762675297</v>
+        <v>0.2193548387096774</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2950377562028041</v>
+        <v>0.29516129032258</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3473570658036672</v>
+        <v>0.3473118279569887</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02588996763754045</v>
+        <v>0.02580645161290323</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2783171521035599</v>
+        <v>0.2806451612903226</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.4789644012944984</v>
+        <v>0.4806451612903226</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6051779935275081</v>
+        <v>0.6064516129032258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6763754045307443</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.932038834951456</v>
+        <v>4.922580645161291</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>19.46278317152104</v>
+        <v>19.49354838709677</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1073354908306365</v>
+        <v>0.1069892473118279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3074433656957921</v>
+        <v>0.306451612903225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3446601941747564</v>
+        <v>0.3435483870967733</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4244875943905065</v>
+        <v>0.4241935483870963</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5032362459546927</v>
+        <v>0.5037634408602152</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2297734627831715</v>
+        <v>0.2290322580645161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6731391585760518</v>
+        <v>0.6709677419354839</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7475728155339806</v>
+        <v>0.7451612903225806</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8252427184466019</v>
+        <v>0.8258064516129032</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.919093851132686</v>
+        <v>0.9193548387096774</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.789644012944984</v>
+        <v>2.793548387096774</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>17.22006472491909</v>
+        <v>17.24193548387097</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1100323624595469</v>
+        <v>0.110752688172043</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3106796116504846</v>
+        <v>0.3107526881720422</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3462783171521027</v>
+        <v>0.3473118279569884</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4277238403451993</v>
+        <v>0.4284946236559136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.481121898597627</v>
+        <v>0.4817204301075271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2362459546925566</v>
+        <v>0.2387096774193548</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6796116504854369</v>
+        <v>0.6806451612903226</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7443365695792881</v>
+        <v>0.7451612903225806</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8155339805825242</v>
+        <v>0.8161290322580645</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.883495145631068</v>
+        <v>0.8838709677419355</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.906148867313916</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>17.96763754045308</v>
+        <v>17.99677419354839</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1089536138079827</v>
+        <v>0.1086021505376344</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3090614886731383</v>
+        <v>0.3091397849462357</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3430420711974101</v>
+        <v>0.3440860215053755</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4099244875943902</v>
+        <v>0.4107526881720427</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4617044228694718</v>
+        <v>0.4623655913978499</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2330097087378641</v>
+        <v>0.232258064516129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6763754045307443</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7378640776699029</v>
+        <v>0.7387096774193549</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7799352750809061</v>
+        <v>0.7806451612903226</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8543689320388349</v>
+        <v>0.8548387096774194</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.116504854368932</v>
+        <v>3.112903225806452</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>17.52427184466019</v>
+        <v>17.55483870967742</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1089536138079827</v>
+        <v>0.1086021505376344</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3090614886731383</v>
+        <v>0.3091397849462357</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3430420711974101</v>
+        <v>0.3440860215053755</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4099244875943902</v>
+        <v>0.4107526881720427</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4617044228694718</v>
+        <v>0.4623655913978499</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2330097087378641</v>
+        <v>0.232258064516129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6763754045307443</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7378640776699029</v>
+        <v>0.7387096774193549</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7799352750809061</v>
+        <v>0.7806451612903226</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8543689320388349</v>
+        <v>0.8548387096774194</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.116504854368932</v>
+        <v>3.112903225806452</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>17.52427184466019</v>
+        <v>17.55483870967742</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1094929881337648</v>
+        <v>0.1102150537634409</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3031283710895353</v>
+        <v>0.3032258064516121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3710895361380789</v>
+        <v>0.3709677419354829</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4422869471413158</v>
+        <v>0.4419354838709675</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.503775620280475</v>
+        <v>0.5043010752688175</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2362459546925566</v>
+        <v>0.2387096774193548</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6634304207119741</v>
+        <v>0.6645161290322581</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7993527508090615</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8770226537216829</v>
+        <v>0.8774193548387097</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9385113268608414</v>
+        <v>0.9387096774193548</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.605177993527508</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.46925566343042</v>
+        <v>18.49677419354839</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02912621359223301</v>
+        <v>0.02903225806451613</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1790722761596549</v>
+        <v>0.1784946236559141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2982740021574966</v>
+        <v>0.2973118279569886</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3985976267529657</v>
+        <v>0.3973118279569884</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4401294498381878</v>
+        <v>0.4387096774193549</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.05825242718446602</v>
+        <v>0.05806451612903226</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3754045307443366</v>
+        <v>0.3741935483870968</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6440129449838188</v>
+        <v>0.6419354838709678</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8349514563106796</v>
+        <v>0.832258064516129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8802588996763754</v>
+        <v>0.8774193548387097</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.336569579288026</v>
+        <v>3.351612903225806</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>19.46278317152104</v>
+        <v>19.44838709677419</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1175836030204963</v>
+        <v>0.1172043010752689</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2259978425026969</v>
+        <v>0.2252688172043011</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2680690399136995</v>
+        <v>0.2672043010752683</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2621359223300971</v>
+        <v>0.2612903225806452</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5048543689320388</v>
+        <v>0.5032258064516129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.56957928802589</v>
+        <v>0.567741935483871</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>7.666666666666667</v>
+        <v>7.667741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>23.25566343042071</v>
+        <v>23.29032258064516</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1111111111111111</v>
+        <v>0.1118279569892473</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.177993527508091</v>
+        <v>0.1784946236559143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2238403451995686</v>
+        <v>0.2241935483870968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2513484358144547</v>
+        <v>0.2516129032258059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2691477885652635</v>
+        <v>0.2693548387096766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2394822006472492</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4045307443365696</v>
+        <v>0.4064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5048543689320388</v>
+        <v>0.5064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5566343042071198</v>
+        <v>0.5580645161290323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5792880258899676</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.51132686084142</v>
+        <v>11.47741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.80906148867314</v>
+        <v>43.83225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1073354908306365</v>
+        <v>0.1069892473118279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3074433656957921</v>
+        <v>0.306451612903225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3446601941747564</v>
+        <v>0.3435483870967733</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4244875943905065</v>
+        <v>0.4241935483870963</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5032362459546927</v>
+        <v>0.5037634408602152</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2297734627831715</v>
+        <v>0.2290322580645161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6731391585760518</v>
+        <v>0.6709677419354839</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7475728155339806</v>
+        <v>0.7451612903225806</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8252427184466019</v>
+        <v>0.8258064516129032</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.919093851132686</v>
+        <v>0.9193548387096774</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.789644012944984</v>
+        <v>2.793548387096774</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>17.22006472491909</v>
+        <v>17.24193548387097</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1073354908306365</v>
+        <v>0.1069892473118279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3074433656957921</v>
+        <v>0.306451612903225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3446601941747564</v>
+        <v>0.3435483870967733</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4244875943905065</v>
+        <v>0.4241935483870963</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5032362459546927</v>
+        <v>0.5037634408602152</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2297734627831715</v>
+        <v>0.2290322580645161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6731391585760518</v>
+        <v>0.6709677419354839</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7475728155339806</v>
+        <v>0.7451612903225806</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8252427184466019</v>
+        <v>0.8258064516129032</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.919093851132686</v>
+        <v>0.9193548387096774</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.789644012944984</v>
+        <v>2.793548387096774</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>17.22006472491909</v>
+        <v>17.24193548387097</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1094929881337648</v>
+        <v>0.1102150537634409</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3004314994606249</v>
+        <v>0.3005376344086013</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3710895361380789</v>
+        <v>0.3709677419354829</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4466019417475731</v>
+        <v>0.4462365591397853</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5075512405609497</v>
+        <v>0.5080645161290326</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2362459546925566</v>
+        <v>0.2387096774193548</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.656957928802589</v>
+        <v>0.6580645161290323</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7993527508090615</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9029126213592233</v>
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9385113268608414</v>
+        <v>0.9387096774193548</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.58252427184466</v>
+        <v>2.57741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.00323624595469</v>
+        <v>18.03548387096774</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1111111111111111</v>
+        <v>0.1118279569892473</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.177993527508091</v>
+        <v>0.1784946236559143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2238403451995686</v>
+        <v>0.2241935483870968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2513484358144547</v>
+        <v>0.2516129032258059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2691477885652635</v>
+        <v>0.2693548387096766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2394822006472492</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4045307443365696</v>
+        <v>0.4064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5048543689320388</v>
+        <v>0.5064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5566343042071198</v>
+        <v>0.5580645161290323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5792880258899676</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.51132686084142</v>
+        <v>11.47741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.80906148867314</v>
+        <v>43.83225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1111111111111111</v>
+        <v>0.1118279569892473</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.177993527508091</v>
+        <v>0.1784946236559143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2238403451995686</v>
+        <v>0.2241935483870968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2513484358144547</v>
+        <v>0.2516129032258059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2691477885652635</v>
+        <v>0.2693548387096766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2394822006472492</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4045307443365696</v>
+        <v>0.4064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5048543689320388</v>
+        <v>0.5064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5566343042071198</v>
+        <v>0.5580645161290323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5792880258899676</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.51132686084142</v>
+        <v>11.47741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.80906148867314</v>
+        <v>43.83225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1111111111111111</v>
+        <v>0.1118279569892473</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.177993527508091</v>
+        <v>0.1784946236559143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2238403451995686</v>
+        <v>0.2241935483870968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2513484358144547</v>
+        <v>0.2516129032258059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2691477885652635</v>
+        <v>0.2693548387096766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2394822006472492</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4045307443365696</v>
+        <v>0.4064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5048543689320388</v>
+        <v>0.5064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5566343042071198</v>
+        <v>0.5580645161290323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5792880258899676</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.51132686084142</v>
+        <v>11.47741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.80906148867314</v>
+        <v>43.83225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03667745415318233</v>
+        <v>0.03655913978494626</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06903991370010784</v>
+        <v>0.06881720430107523</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2006472491909387</v>
+        <v>0.2010752688172045</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2858683926645086</v>
+        <v>0.2860215053763435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.405609492988133</v>
+        <v>0.4053763440860207</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.08414239482200647</v>
+        <v>0.08387096774193549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1488673139158576</v>
+        <v>0.1483870967741935</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.43042071197411</v>
+        <v>0.432258064516129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6051779935275081</v>
+        <v>0.6064516129032258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8284789644012945</v>
+        <v>0.8290322580645161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.181229773462783</v>
+        <v>4.17741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>19.15533980582524</v>
+        <v>19.18387096774194</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09924487594390502</v>
+        <v>0.09999999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2691477885652637</v>
+        <v>0.2693548387096768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3354908306364609</v>
+        <v>0.3354838709677411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4088457389428255</v>
+        <v>0.4086021505376335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4692556634304209</v>
+        <v>0.4688172043010755</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2135922330097087</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5825242718446602</v>
+        <v>0.5838709677419355</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7249190938511327</v>
+        <v>0.7258064516129032</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8478964401294499</v>
+        <v>0.8483870967741935</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9029126213592233</v>
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.870550161812298</v>
+        <v>2.864516129032258</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.55016181229773</v>
+        <v>18.57741935483871</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1111111111111111</v>
+        <v>0.1118279569892473</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.177993527508091</v>
+        <v>0.1784946236559143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2238403451995686</v>
+        <v>0.2241935483870968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2513484358144547</v>
+        <v>0.2516129032258059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2691477885652635</v>
+        <v>0.2693548387096766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2394822006472492</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4045307443365696</v>
+        <v>0.4064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5048543689320388</v>
+        <v>0.5064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5566343042071198</v>
+        <v>0.5580645161290323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5792880258899676</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.51132686084142</v>
+        <v>11.47741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.80906148867314</v>
+        <v>43.83225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08306364617044226</v>
+        <v>0.08279569892473115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2804746494066875</v>
+        <v>0.2795698924731176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3527508090614879</v>
+        <v>0.3516129032258057</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4681769147788573</v>
+        <v>0.4677419354838718</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5053937432578214</v>
+        <v>0.5048387096774198</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1747572815533981</v>
+        <v>0.1741935483870968</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6116504854368932</v>
+        <v>0.6096774193548387</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7508090614886731</v>
+        <v>0.7483870967741936</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9223300970873787</v>
+        <v>0.9225806451612903</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.941747572815534</v>
+        <v>0.9419354838709677</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.647249190938511</v>
+        <v>2.651612903225807</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.09708737864078</v>
+        <v>18.11612903225807</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1073354908306365</v>
+        <v>0.1069892473118279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3074433656957921</v>
+        <v>0.306451612903225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3446601941747564</v>
+        <v>0.3435483870967733</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4244875943905065</v>
+        <v>0.4241935483870963</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5032362459546927</v>
+        <v>0.5037634408602152</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2297734627831715</v>
+        <v>0.2290322580645161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6731391585760518</v>
+        <v>0.6709677419354839</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7475728155339806</v>
+        <v>0.7451612903225806</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8252427184466019</v>
+        <v>0.8258064516129032</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.919093851132686</v>
+        <v>0.9193548387096774</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.789644012944984</v>
+        <v>2.793548387096774</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>17.22006472491909</v>
+        <v>17.24193548387097</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1073354908306365</v>
+        <v>0.1069892473118279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3074433656957921</v>
+        <v>0.306451612903225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3446601941747564</v>
+        <v>0.3435483870967733</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4244875943905065</v>
+        <v>0.4241935483870963</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5032362459546927</v>
+        <v>0.5037634408602152</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2297734627831715</v>
+        <v>0.2290322580645161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6731391585760518</v>
+        <v>0.6709677419354839</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7475728155339806</v>
+        <v>0.7451612903225806</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8252427184466019</v>
+        <v>0.8258064516129032</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.919093851132686</v>
+        <v>0.9193548387096774</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.789644012944984</v>
+        <v>2.793548387096774</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>17.22006472491909</v>
+        <v>17.24193548387097</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09924487594390502</v>
+        <v>0.09999999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2691477885652637</v>
+        <v>0.2693548387096768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3354908306364609</v>
+        <v>0.3354838709677411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4088457389428255</v>
+        <v>0.4086021505376335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4676375404530745</v>
+        <v>0.4672043010752689</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2135922330097087</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5825242718446602</v>
+        <v>0.5838709677419355</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7249190938511327</v>
+        <v>0.7258064516129032</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8478964401294499</v>
+        <v>0.8483870967741935</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9029126213592233</v>
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.870550161812298</v>
+        <v>2.864516129032258</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.79611650485437</v>
+        <v>18.82258064516129</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.04261057173678533</v>
+        <v>0.0424731182795699</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2184466019417476</v>
+        <v>0.217741935483871</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3139158576051771</v>
+        <v>0.3129032258064507</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4045307443365688</v>
+        <v>0.4032258064516122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.08737864077669903</v>
+        <v>0.08709677419354839</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.4724919093851133</v>
+        <v>0.4709677419354839</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6893203883495146</v>
+        <v>0.6870967741935484</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8220064724919094</v>
+        <v>0.8193548387096774</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.229773462783172</v>
+        <v>4.241935483870968</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>19.55016181229773</v>
+        <v>19.53548387096774</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09600862998921246</v>
+        <v>0.09677419354838704</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2141316073354909</v>
+        <v>0.2145161290322581</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3025889967637533</v>
+        <v>0.3026881720430101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3786407766990283</v>
+        <v>0.3784946236559131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.432038834951456</v>
+        <v>0.4317204301075266</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2071197411003236</v>
+        <v>0.2096774193548387</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4498381877022654</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6537216828478964</v>
+        <v>0.6548387096774193</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8058252427184466</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.883495145631068</v>
+        <v>0.8838709677419355</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.200647249190939</v>
+        <v>3.193548387096774</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>19.41747572815534</v>
+        <v>19.44516129032258</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01294498381877023</v>
+        <v>0.01290322580645161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1278317152103562</v>
+        <v>0.1284946236559142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2189859762675297</v>
+        <v>0.2193548387096774</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2950377562028041</v>
+        <v>0.29516129032258</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3473570658036672</v>
+        <v>0.3473118279569887</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02588996763754045</v>
+        <v>0.02580645161290323</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2783171521035599</v>
+        <v>0.2806451612903226</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.4789644012944984</v>
+        <v>0.4806451612903226</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6051779935275081</v>
+        <v>0.6064516129032258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6763754045307443</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.935275080906149</v>
+        <v>4.925806451612903</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>19.46278317152104</v>
+        <v>19.49354838709677</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09654800431499456</v>
+        <v>0.09623655913978491</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2847896440129443</v>
+        <v>0.2838709677419348</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3554476806903983</v>
+        <v>0.3543010752688164</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.440129449838188</v>
+        <v>0.4397849462365594</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4919093851132693</v>
+        <v>0.4913978494623663</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2038834951456311</v>
+        <v>0.2032258064516129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6181229773462783</v>
+        <v>0.6161290322580645</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7572815533980582</v>
+        <v>0.7548387096774194</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9061488673139159</v>
+        <v>0.9064516129032258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9320388349514563</v>
+        <v>0.932258064516129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.650485436893204</v>
+        <v>2.654838709677419</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.4336569579288</v>
+        <v>18.43225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1175836030204963</v>
+        <v>0.1172043010752689</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2259978425026969</v>
+        <v>0.2252688172043011</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2680690399136995</v>
+        <v>0.2672043010752683</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2621359223300971</v>
+        <v>0.2612903225806452</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5048543689320388</v>
+        <v>0.5032258064516129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.56957928802589</v>
+        <v>0.567741935483871</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>7.666666666666667</v>
+        <v>7.667741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>23.25566343042071</v>
+        <v>23.29032258064516</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1111111111111111</v>
+        <v>0.1118279569892473</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.177993527508091</v>
+        <v>0.1784946236559143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2238403451995686</v>
+        <v>0.2241935483870968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2513484358144547</v>
+        <v>0.2516129032258059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2691477885652635</v>
+        <v>0.2693548387096766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2394822006472492</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4045307443365696</v>
+        <v>0.4064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5048543689320388</v>
+        <v>0.5064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5566343042071198</v>
+        <v>0.5580645161290323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5792880258899676</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.51132686084142</v>
+        <v>11.47741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.80906148867314</v>
+        <v>43.83225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1111111111111111</v>
+        <v>0.1118279569892473</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.177993527508091</v>
+        <v>0.1784946236559143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2238403451995686</v>
+        <v>0.2241935483870968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2513484358144547</v>
+        <v>0.2516129032258059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2691477885652635</v>
+        <v>0.2693548387096766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2394822006472492</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4045307443365696</v>
+        <v>0.4064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5048543689320388</v>
+        <v>0.5064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5566343042071198</v>
+        <v>0.5580645161290323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5792880258899676</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.51132686084142</v>
+        <v>11.47741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.80906148867314</v>
+        <v>43.83225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06796116504854366</v>
+        <v>0.06774193548387093</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2502696871628905</v>
+        <v>0.2494623655913973</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3516720604099237</v>
+        <v>0.3505376344086014</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.460625674217908</v>
+        <v>0.4602150537634416</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4919093851132691</v>
+        <v>0.4913978494623661</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.145631067961165</v>
+        <v>0.1451612903225807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5501618122977346</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7508090614886731</v>
+        <v>0.7483870967741936</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.919093851132686</v>
+        <v>0.9193548387096774</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9352750809061489</v>
+        <v>0.9354838709677419</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.766990291262136</v>
+        <v>2.770967741935484</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>26.49190938511327</v>
+        <v>26.46129032258064</v>
       </c>
     </row>
   </sheetData>
